--- a/Assets/06.Tables/Excel/Item.xlsx
+++ b/Assets/06.Tables/Excel/Item.xlsx
@@ -889,7 +889,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
